--- a/biology/Microbiologie/Unibacteria/Unibacteria.xlsx
+++ b/biology/Microbiologie/Unibacteria/Unibacteria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Unibacteria est un sous-règne[1] dans le règne des bactéries.
-Il inclut toutes les bactéries gram-positives (embranchement Posibacteria) ainsi que l'embranchement Archaebacteria. Ce taxon est paraphylétique car il exclut l'empire Eukaryota[2].
-Monodermata est un synonyme junior proposé la même année par un autre auteur[3].
-Par glissement de sens, l'adjectif monoderme qualifie, indépendamment de toute classification, les bactéries (sensu Woese) ayant une seule membrane[4].
-Ce terme n'est plus utilisé car il ne correspond plus à la séparation qui est faite chez les procaryotes, archaea et eubactéries, le premier groupe regroupant les négibacteria et les posibacteria, les archaea ne faisant partie d'aucun de ces deux groupes[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unibacteria est un sous-règne dans le règne des bactéries.
+Il inclut toutes les bactéries gram-positives (embranchement Posibacteria) ainsi que l'embranchement Archaebacteria. Ce taxon est paraphylétique car il exclut l'empire Eukaryota.
+Monodermata est un synonyme junior proposé la même année par un autre auteur.
+Par glissement de sens, l'adjectif monoderme qualifie, indépendamment de toute classification, les bactéries (sensu Woese) ayant une seule membrane.
+Ce terme n'est plus utilisé car il ne correspond plus à la séparation qui est faite chez les procaryotes, archaea et eubactéries, le premier groupe regroupant les négibacteria et les posibacteria, les archaea ne faisant partie d'aucun de ces deux groupes.
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les unibactéries se caractérisent par l'absence d'une membrane externe : elles n'ont qu'une membrane plasmique, contrairement aux négibactéries. On dit que ces bactéries sont monodermes (par référence au terme de Gupta) ou unimembranées (par référence au clade unimembrana).
 </t>
